--- a/classwork/Timetable_plan.xlsx
+++ b/classwork/Timetable_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\293952\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538576C0-5C62-47AE-8A44-5DE50CFE1C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5CAA41-6E5F-4369-97FF-B3BDB2EF73A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1F2F364D-3894-4027-A178-52FA49439CFC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t>Topics</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Hackerank/visual studio</t>
+  </si>
+  <si>
+    <t>Time to Discuss</t>
+  </si>
+  <si>
+    <t>Breaktime</t>
   </si>
 </sst>
 </file>
@@ -480,20 +486,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C9E99E-E70A-4F83-9A80-6F62AA4E87E7}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.90625" customWidth="1"/>
-    <col min="4" max="5" width="23.7265625" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -506,8 +513,11 @@
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -520,8 +530,11 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -534,8 +547,11 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -548,8 +564,11 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -562,8 +581,11 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -576,8 +598,11 @@
       <c r="D6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -590,8 +615,11 @@
       <c r="D7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -604,8 +632,11 @@
       <c r="D8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -618,8 +649,11 @@
       <c r="D9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -632,8 +666,11 @@
       <c r="D10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -646,8 +683,11 @@
       <c r="D11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -660,8 +700,11 @@
       <c r="D12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -674,8 +717,11 @@
       <c r="D13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -688,8 +734,11 @@
       <c r="D14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -702,8 +751,11 @@
       <c r="D15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -715,6 +767,9 @@
       </c>
       <c r="D16" t="s">
         <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/classwork/Timetable_plan.xlsx
+++ b/classwork/Timetable_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\293952\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5CAA41-6E5F-4369-97FF-B3BDB2EF73A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95BD4FA-3AA4-4534-A928-9D851A27B230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1F2F364D-3894-4027-A178-52FA49439CFC}"/>
   </bookViews>
@@ -489,7 +489,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/classwork/Timetable_plan.xlsx
+++ b/classwork/Timetable_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\293952\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95BD4FA-3AA4-4534-A928-9D851A27B230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5982EE2C-9548-415B-B39A-6B7CE1DB5EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1F2F364D-3894-4027-A178-52FA49439CFC}"/>
   </bookViews>
@@ -489,7 +489,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
